--- a/Documents/Task.xlsx
+++ b/Documents/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyajing/Documents/Final Year Project/Parsons-problem-generator-solver/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CEBB2E8-4A37-FB43-8C0F-B61F0DAA4916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC660536-213B-6942-9FB0-C4CBD1028502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +535,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -543,6 +545,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -551,6 +555,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -562,6 +568,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">

--- a/Documents/Task.xlsx
+++ b/Documents/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyajing/Documents/Final Year Project/Parsons-problem-generator-solver/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC660536-213B-6942-9FB0-C4CBD1028502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670CDAD-0486-1C41-A263-142F8D3E558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,11 +578,21 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">

--- a/Documents/Task.xlsx
+++ b/Documents/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyajing/Documents/Final Year Project/Parsons-problem-generator-solver/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670CDAD-0486-1C41-A263-142F8D3E558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230A9FC-DC5F-5E4B-B0EC-C24D855A0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documents/Task.xlsx
+++ b/Documents/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyajing/Documents/Final Year Project/Parsons-problem-generator-solver/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230A9FC-DC5F-5E4B-B0EC-C24D855A0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB5CA0F-E0F2-1E42-A169-450918EA5CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{FB1E2334-D60B-1944-804B-BF7A6A1178BC}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,6 +598,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -609,6 +614,11 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
@@ -625,6 +635,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
@@ -641,11 +656,21 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
